--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Spring.030220.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Spring.030220.xlsx_with_dialog_acts.xlsx
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1479,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2545,12 +2545,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3007,12 +3007,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3049,12 +3049,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3133,12 +3133,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3889,12 +3889,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4603,12 +4603,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5107,12 +5107,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5149,12 +5149,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5531,12 +5531,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5867,12 +5867,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6077,12 +6077,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6287,12 +6287,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6329,12 +6329,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6833,12 +6833,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7341,12 +7341,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7681,12 +7681,12 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8017,12 +8017,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8357,12 +8357,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8575,12 +8575,12 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8617,12 +8617,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8827,12 +8827,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9079,12 +9079,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9125,12 +9125,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9797,12 +9797,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -10137,12 +10137,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10691,12 +10691,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10733,12 +10733,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10775,12 +10775,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10985,12 +10985,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11741,12 +11741,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12501,12 +12501,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13387,12 +13387,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13601,12 +13601,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13685,12 +13685,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13811,12 +13811,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14315,12 +14315,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
